--- a/Test_Planner/VIAX_OrderCreation.xlsx
+++ b/Test_Planner/VIAX_OrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC63991B-3971-438F-BD8D-6EB7AA916E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D62FA07-A4FA-4624-A743-74160D6FF228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>SuteName</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>TC_01 Trigger Invoice Order with New Customer</t>
+  </si>
+  <si>
+    <t>AU_OC_04</t>
+  </si>
+  <si>
+    <t>AU_OC_05</t>
+  </si>
+  <si>
+    <t>AU_OC_06</t>
+  </si>
+  <si>
+    <t>TC_06 Trigger Invoice Order with Existing Customer</t>
+  </si>
+  <si>
+    <t>TC_05 Trigger CreditCard Order with Existing Customer</t>
+  </si>
+  <si>
+    <t>TC_04 Trigger Alipay Order with Existing Customer</t>
   </si>
 </sst>
 </file>
@@ -132,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,11 +173,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -168,6 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,6 +649,57 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5400338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5400339</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5400340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
@@ -630,17 +711,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D4">
-    <cfRule type="expression" dxfId="0" priority="3640">
+    <cfRule type="expression" dxfId="3" priority="3640">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="3" priority="3641">
+    <cfRule type="expression" dxfId="2" priority="3641">
       <formula>COUNTIF(G$56:G$101,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 C5:E1048576">
-    <cfRule type="expression" dxfId="2" priority="3573">
+  <conditionalFormatting sqref="E3:E4 C8:E1048576 D5:E7">
+    <cfRule type="expression" dxfId="0" priority="3573">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -650,7 +731,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -666,15 +747,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB318C388A6B04FB5EA4B6A454DD04D" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="529c52af2e5f736fd7766b468ba66b9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a577898b-6855-4c00-94c2-65f3a1a2604e" xmlns:ns4="f8d9bec8-ea51-4f0f-8110-f49fc874611e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb04426f2fa1e3093e624188e4495695" ns3:_="" ns4:_="">
     <xsd:import namespace="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
@@ -877,6 +949,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
@@ -895,14 +976,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CBA780-8BAE-47D7-A333-9374A3A80872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -919,4 +992,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test_Planner/VIAX_OrderCreation.xlsx
+++ b/Test_Planner/VIAX_OrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D62FA07-A4FA-4624-A743-74160D6FF228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4533CC-25C3-4B1D-AC91-A8504B803446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>SuteName</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>TC_04 Trigger Alipay Order with Existing Customer</t>
+  </si>
+  <si>
+    <t>TC_08 Trigger Proforma Order with Existing Customer</t>
+  </si>
+  <si>
+    <t>TC_07 Trigger Proforma Order with New Customer</t>
+  </si>
+  <si>
+    <t>AU_OC_07</t>
+  </si>
+  <si>
+    <t>AU_OC_08</t>
   </si>
 </sst>
 </file>
@@ -188,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,6 +209,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,6 +712,40 @@
       </c>
       <c r="E7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5400509</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5400510</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -717,10 +765,10 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="2" priority="3641">
-      <formula>COUNTIF(G$56:G$101,#REF!)</formula>
+      <formula>COUNTIF(G$55:G$100,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 C8:E1048576 D5:E7">
+  <conditionalFormatting sqref="E3:E4 C10:E1048576 D5:E9">
     <cfRule type="expression" dxfId="0" priority="3573">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
@@ -731,7 +779,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -741,9 +789,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -950,27 +1001,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -995,9 +1034,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f8d9bec8-ea51-4f0f-8110-f49fc874611e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Test_Planner/VIAX_OrderCreation.xlsx
+++ b/Test_Planner/VIAX_OrderCreation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4533CC-25C3-4B1D-AC91-A8504B803446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEED4C2-1992-4C98-B98F-FA189FCCB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>SuteName</t>
   </si>
@@ -61,59 +61,203 @@
     <t>SAP Regression Automation</t>
   </si>
   <si>
-    <t>AU_OC_01</t>
-  </si>
-  <si>
-    <t>AU_OC_02</t>
-  </si>
-  <si>
-    <t>AU_OC_03</t>
-  </si>
-  <si>
-    <t>TC_03 Trigger Alipay Order with New Customer</t>
-  </si>
-  <si>
-    <t>TC_02 Trigger CreditCard Order with New Customer</t>
-  </si>
-  <si>
-    <t>TC_01 Trigger Invoice Order with New Customer</t>
-  </si>
-  <si>
-    <t>AU_OC_04</t>
-  </si>
-  <si>
-    <t>AU_OC_05</t>
-  </si>
-  <si>
-    <t>AU_OC_06</t>
-  </si>
-  <si>
-    <t>TC_06 Trigger Invoice Order with Existing Customer</t>
-  </si>
-  <si>
-    <t>TC_05 Trigger CreditCard Order with Existing Customer</t>
-  </si>
-  <si>
-    <t>TC_04 Trigger Alipay Order with Existing Customer</t>
-  </si>
-  <si>
-    <t>TC_08 Trigger Proforma Order with Existing Customer</t>
-  </si>
-  <si>
-    <t>TC_07 Trigger Proforma Order with New Customer</t>
-  </si>
-  <si>
-    <t>AU_OC_07</t>
-  </si>
-  <si>
-    <t>AU_OC_08</t>
+    <t>Create Alipay Order for New Customer with Article discount GOA Order Type</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P1 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P2 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P3 with Editorial Discounts without VAT ID with GOA</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P3 with Editorial Discounts with VAT ID with GOA</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P4 with Institutional Discounts with GOA</t>
+  </si>
+  <si>
+    <t>CreateCC Order with New Customer P4 with Article Type Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P1 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P2 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P4 with Institutonal Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Invoice Order with New Customer P4 with Article Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P1 with Society Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P2 with Promo Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P3 with Editorial Discounts with VAT and with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P3 with Editorial Discounts without VAT and with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P4 with Institutonal Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Proforma Order with New Customer P4 with Article Discounts with GOA</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (%) P1 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (%) P2 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (Value) P3 with CC HOA Order with VAT ID</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (Value) P3 with CC HOA Order without VAT ID</t>
+  </si>
+  <si>
+    <t>Create Order with Institutional Discount P4 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Custom Discount P4 with CC HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (Value) P1 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (Value) P2 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount (%) P3 with Invoice HOA Order with VAT ID</t>
+  </si>
+  <si>
+    <t>Create Order with Promo Discount (%) P3 with Invoice HOA Order without VAT ID</t>
+  </si>
+  <si>
+    <t>Create Order with Custom Discount P4 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Institutional Discount P4 with Invoice HOA Order</t>
+  </si>
+  <si>
+    <t>Create Order with Society Discount Value P4 with Alipay HOA Order</t>
+  </si>
+  <si>
+    <t>CO_NW_01</t>
+  </si>
+  <si>
+    <t>CO_NW_02</t>
+  </si>
+  <si>
+    <t>CO_NW_03</t>
+  </si>
+  <si>
+    <t>CO_NW_04</t>
+  </si>
+  <si>
+    <t>CO_NW_05</t>
+  </si>
+  <si>
+    <t>CO_NW_06</t>
+  </si>
+  <si>
+    <t>CO_NW_07</t>
+  </si>
+  <si>
+    <t>CO_NW_08</t>
+  </si>
+  <si>
+    <t>CO_NW_09</t>
+  </si>
+  <si>
+    <t>CO_NW_10</t>
+  </si>
+  <si>
+    <t>CO_NW_11</t>
+  </si>
+  <si>
+    <t>CO_NW_12</t>
+  </si>
+  <si>
+    <t>CO_NW_13</t>
+  </si>
+  <si>
+    <t>CO_NW_14</t>
+  </si>
+  <si>
+    <t>CO_NW_15</t>
+  </si>
+  <si>
+    <t>CO_NW_16</t>
+  </si>
+  <si>
+    <t>CO_NW_17</t>
+  </si>
+  <si>
+    <t>CO_NW_18</t>
+  </si>
+  <si>
+    <t>CO_NW_19</t>
+  </si>
+  <si>
+    <t>CO_NW_20</t>
+  </si>
+  <si>
+    <t>CO_NW_21</t>
+  </si>
+  <si>
+    <t>CO_NW_22</t>
+  </si>
+  <si>
+    <t>CO_NW_23</t>
+  </si>
+  <si>
+    <t>CO_NW_24</t>
+  </si>
+  <si>
+    <t>CO_NW_25</t>
+  </si>
+  <si>
+    <t>CO_NW_26</t>
+  </si>
+  <si>
+    <t>CO_NW_27</t>
+  </si>
+  <si>
+    <t>CO_NW_28</t>
+  </si>
+  <si>
+    <t>CO_NW_29</t>
+  </si>
+  <si>
+    <t>CO_NW_30</t>
+  </si>
+  <si>
+    <t>CO_NW_31</t>
+  </si>
+  <si>
+    <t>CO_NW_32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +279,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +318,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,21 +377,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,7 +793,7 @@
     <col min="1" max="1" width="57.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.453125" customWidth="1"/>
+    <col min="5" max="5" width="83.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -620,13 +821,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5409408</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5400141</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -637,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5409410</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5400142</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -654,13 +855,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5409411</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5400143</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -671,13 +872,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6">
-        <v>5400338</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5409412</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -688,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5400339</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5409413</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -705,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5400340</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5409414</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -722,13 +923,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5400509</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5409415</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -739,13 +940,421 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5409416</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5409417</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5409418</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12">
+        <v>5409448</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5409419</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5409420</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5409421</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13">
+        <v>5409422</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5409423</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
-        <v>5400510</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5409424</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13">
+        <v>5409425</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5409426</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13">
+        <v>5409427</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5409428</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="13">
+        <v>5409429</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="13">
+        <v>5409430</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="13">
+        <v>5409431</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="13">
+        <v>5409432</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="13">
+        <v>5409433</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13">
+        <v>5409434</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="13">
+        <v>5409435</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5409436</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="13">
+        <v>5409437</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="13">
+        <v>5409438</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="13">
+        <v>5409439</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +1367,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D4">
+  <conditionalFormatting sqref="D1:D11">
     <cfRule type="expression" dxfId="3" priority="3640">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
@@ -768,7 +1377,7 @@
       <formula>COUNTIF(G$55:G$100,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 C10:E1048576 D5:E9">
+  <conditionalFormatting sqref="C34:E1048576 E3:E11 D12:E33">
     <cfRule type="expression" dxfId="0" priority="3573">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
@@ -779,7 +1388,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -789,15 +1398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009EB318C388A6B04FB5EA4B6A454DD04D" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="529c52af2e5f736fd7766b468ba66b9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a577898b-6855-4c00-94c2-65f3a1a2604e" xmlns:ns4="f8d9bec8-ea51-4f0f-8110-f49fc874611e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb04426f2fa1e3093e624188e4495695" ns3:_="" ns4:_="">
     <xsd:import namespace="a577898b-6855-4c00-94c2-65f3a1a2604e"/>
@@ -1000,6 +1600,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1007,14 +1616,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4CBA780-8BAE-47D7-A333-9374A3A80872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1029,6 +1630,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Test_Planner/VIAX_OrderCreation.xlsx
+++ b/Test_Planner/VIAX_OrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEED4C2-1992-4C98-B98F-FA189FCCB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB87D2-9D61-461A-9D05-54ACC0DCAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -412,7 +412,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,13 +991,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>5409448</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5409419</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1008,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13">
-        <v>5409419</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
+        <v>5409420</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13">
-        <v>5409420</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>5409421</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1042,13 +1042,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="13">
-        <v>5409421</v>
+        <v>5409422</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1059,13 +1059,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13">
-        <v>5409422</v>
+        <v>5409423</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1076,13 +1076,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="13">
-        <v>5409423</v>
+        <v>5409424</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1093,13 +1093,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="13">
-        <v>5409424</v>
+        <v>5409425</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1110,13 +1110,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13">
-        <v>5409425</v>
+        <v>5409426</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1127,13 +1127,13 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="13">
-        <v>5409426</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>25</v>
+        <v>5409427</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1144,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="13">
-        <v>5409427</v>
+        <v>5409428</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1161,13 +1161,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="13">
-        <v>5409428</v>
+        <v>5409429</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1178,13 +1178,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="13">
-        <v>5409429</v>
+        <v>5409430</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1195,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="13">
-        <v>5409430</v>
+        <v>5409431</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1212,13 +1212,13 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="13">
-        <v>5409431</v>
+        <v>5409432</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1229,13 +1229,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="13">
-        <v>5409432</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>5409433</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1246,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="13">
-        <v>5409433</v>
+        <v>5409434</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1263,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="13">
-        <v>5409434</v>
+        <v>5409435</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1280,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D29" s="13">
-        <v>5409435</v>
+        <v>5409436</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1297,13 +1297,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="13">
-        <v>5409436</v>
+        <v>5409437</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1314,13 +1314,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="13">
-        <v>5409437</v>
+        <v>5409438</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1331,13 +1331,13 @@
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="13">
-        <v>5409438</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>37</v>
+        <v>5409439</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1348,13 +1348,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="13">
-        <v>5409439</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>5409448</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1374,21 +1374,21 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
     <cfRule type="expression" dxfId="2" priority="3641">
-      <formula>COUNTIF(G$55:G$100,#REF!)</formula>
+      <formula>COUNTIF(G$54:G$99,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:E1048576 E3:E11 D12:E33">
-    <cfRule type="expression" dxfId="0" priority="3573">
+  <conditionalFormatting sqref="E3:E11 C33:E1048576 D12:E33">
+    <cfRule type="expression" dxfId="1" priority="3573">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="1" priority="3642">
+    <cfRule type="expression" dxfId="0" priority="3642">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11 B12:B33" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,18 +1601,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,14 +1635,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1657,4 +1649,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test_Planner/VIAX_OrderCreation.xlsx
+++ b/Test_Planner/VIAX_OrderCreation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dchinnasam\OneDrive\Documents\SAP Test Automation\SAP-Test-Automation\Test_Planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DB87D2-9D61-461A-9D05-54ACC0DCAF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C275AFB9-5394-4247-A24D-E37FB7606695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3F52AFC6-D99D-4450-AD0F-1227D9226E9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>SuteName</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>CO_NW_32</t>
+  </si>
+  <si>
+    <t>CO_NW_33</t>
+  </si>
+  <si>
+    <t>CO_NW_34</t>
+  </si>
+  <si>
+    <t>Validate the Order Status in DBS</t>
+  </si>
+  <si>
+    <t>SAPValidations</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -413,6 +425,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF3798-65B8-4491-99A4-6813C24FCF65}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,6 +1368,40 @@
       </c>
       <c r="E33" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>5411316</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>5411317</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1377,7 +1424,7 @@
       <formula>COUNTIF(G$54:G$99,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E11 C33:E1048576 D12:E33">
+  <conditionalFormatting sqref="E3:E11 D12:E33 C33:E1048576">
     <cfRule type="expression" dxfId="1" priority="3573">
       <formula>COUNTIF(#REF!,#REF!)</formula>
     </cfRule>
@@ -1388,7 +1435,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11 B12:B33" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{DE21EE38-54D7-44B6-A9E8-B480FE2F7BC6}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1601,18 +1648,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1635,6 +1682,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34FB7BFF-CBF3-491F-A454-15CC4708CCB1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1649,12 +1704,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A5492E-A32A-41EE-AAEE-6E8BE77D7028}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>